--- a/Labb/ECG Labb/ECG_Mans.xlsx
+++ b/Labb/ECG Labb/ECG_Mans.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windfäll\Documents\GitHub\MatLab\Labb\ECG Labb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5FC0B7-3DA2-48F8-8EFE-FC6A1CB3EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +347,4024 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3779268690</v>
+      </c>
+      <c r="B2">
+        <v>-5.9230900000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3779268690</v>
+      </c>
+      <c r="B3">
+        <v>-5.8186999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3779268690</v>
+      </c>
+      <c r="B4">
+        <v>-5.8619899999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3779268690</v>
+      </c>
+      <c r="B5">
+        <v>-6.0949400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3779268690</v>
+      </c>
+      <c r="B6">
+        <v>-6.2451600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3779268690</v>
+      </c>
+      <c r="B7">
+        <v>-6.2667999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3779268690</v>
+      </c>
+      <c r="B8">
+        <v>-6.2515200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3779268690</v>
+      </c>
+      <c r="B9">
+        <v>-6.2069700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3779268690</v>
+      </c>
+      <c r="B10">
+        <v>-6.2069700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3779268690</v>
+      </c>
+      <c r="B11">
+        <v>-6.20824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3779268690</v>
+      </c>
+      <c r="B12">
+        <v>-6.2235199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3779268690</v>
+      </c>
+      <c r="B13">
+        <v>-6.2336999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3779268690</v>
+      </c>
+      <c r="B14">
+        <v>-6.23116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3779268690</v>
+      </c>
+      <c r="B15">
+        <v>-6.2158800000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3779268690</v>
+      </c>
+      <c r="B16">
+        <v>-6.2196999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3779268690</v>
+      </c>
+      <c r="B17">
+        <v>-6.2222499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3779268690</v>
+      </c>
+      <c r="B18">
+        <v>-6.2146100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3779268690</v>
+      </c>
+      <c r="B19">
+        <v>-6.2069700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3779268690</v>
+      </c>
+      <c r="B20">
+        <v>-6.1955099999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3779268690</v>
+      </c>
+      <c r="B21">
+        <v>-6.2286099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3779268690</v>
+      </c>
+      <c r="B22">
+        <v>-6.2235199999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3779268690</v>
+      </c>
+      <c r="B23">
+        <v>-6.2095200000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3779268690</v>
+      </c>
+      <c r="B24">
+        <v>-6.0122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3779268690</v>
+      </c>
+      <c r="B25">
+        <v>-5.8416199999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3779268690</v>
+      </c>
+      <c r="B26">
+        <v>-5.9663700000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3779268690</v>
+      </c>
+      <c r="B27">
+        <v>-6.2680699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3779268690</v>
+      </c>
+      <c r="B28">
+        <v>-6.3189900000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3779268690</v>
+      </c>
+      <c r="B29">
+        <v>-6.3317199999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3779268690</v>
+      </c>
+      <c r="B30">
+        <v>-6.34063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3779268690</v>
+      </c>
+      <c r="B31">
+        <v>-1.8418399999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3779268690</v>
+      </c>
+      <c r="B32">
+        <v>-4.69719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3779268690</v>
+      </c>
+      <c r="B33">
+        <v>-6.2260600000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3779268690</v>
+      </c>
+      <c r="B34">
+        <v>-6.5901399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3779268690</v>
+      </c>
+      <c r="B35">
+        <v>-6.5990500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3779268690</v>
+      </c>
+      <c r="B36">
+        <v>-6.58887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3779268690</v>
+      </c>
+      <c r="B37">
+        <v>-6.5277700000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3779268690</v>
+      </c>
+      <c r="B38">
+        <v>-6.4577499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3779268690</v>
+      </c>
+      <c r="B39">
+        <v>-6.3737300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3779268690</v>
+      </c>
+      <c r="B40">
+        <v>-6.3126300000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3779268690</v>
+      </c>
+      <c r="B41">
+        <v>-6.2260600000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3779268690</v>
+      </c>
+      <c r="B42">
+        <v>-6.1509600000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3779268690</v>
+      </c>
+      <c r="B43">
+        <v>-6.0885800000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3779268690</v>
+      </c>
+      <c r="B44">
+        <v>-6.0223800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3779268690</v>
+      </c>
+      <c r="B45">
+        <v>-6.0796700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3779268690</v>
+      </c>
+      <c r="B46">
+        <v>-6.3126300000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3779268690</v>
+      </c>
+      <c r="B47">
+        <v>-6.4781199999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3779268690</v>
+      </c>
+      <c r="B48">
+        <v>-6.4704800000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3779268690</v>
+      </c>
+      <c r="B49">
+        <v>-6.4195599999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3779268691</v>
+      </c>
+      <c r="B50">
+        <v>-6.3890099999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3779268691</v>
+      </c>
+      <c r="B51">
+        <v>-6.4157400000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3779268691</v>
+      </c>
+      <c r="B52">
+        <v>-6.4373800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3779268691</v>
+      </c>
+      <c r="B53">
+        <v>-6.4335599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3779268691</v>
+      </c>
+      <c r="B54">
+        <v>-6.4743000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3779268691</v>
+      </c>
+      <c r="B55">
+        <v>-6.4577499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3779268691</v>
+      </c>
+      <c r="B56">
+        <v>-6.4603000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3779268691</v>
+      </c>
+      <c r="B57">
+        <v>-6.4526599999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3779268691</v>
+      </c>
+      <c r="B58">
+        <v>-6.4590199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3779268691</v>
+      </c>
+      <c r="B59">
+        <v>-6.4590199999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3779268691</v>
+      </c>
+      <c r="B60">
+        <v>-6.4462900000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3779268691</v>
+      </c>
+      <c r="B61">
+        <v>-6.45648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3779268691</v>
+      </c>
+      <c r="B62">
+        <v>-6.4501099999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3779268691</v>
+      </c>
+      <c r="B63">
+        <v>-6.3609999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3779268691</v>
+      </c>
+      <c r="B64">
+        <v>-6.2095200000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3779268691</v>
+      </c>
+      <c r="B65">
+        <v>-6.0529400000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3779268691</v>
+      </c>
+      <c r="B66">
+        <v>-6.2999000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3779268691</v>
+      </c>
+      <c r="B67">
+        <v>-6.5417699999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3779268691</v>
+      </c>
+      <c r="B68">
+        <v>-6.5634100000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3779268691</v>
+      </c>
+      <c r="B69">
+        <v>-6.6117800000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3779268691</v>
+      </c>
+      <c r="B70">
+        <v>-5.2560399999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3779268691</v>
+      </c>
+      <c r="B71">
+        <v>-1.37338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3779268691</v>
+      </c>
+      <c r="B72">
+        <v>-5.8823499999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3779268691</v>
+      </c>
+      <c r="B73">
+        <v>-6.6677999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3779268691</v>
+      </c>
+      <c r="B74">
+        <v>-6.8269200000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3779268691</v>
+      </c>
+      <c r="B75">
+        <v>-6.81419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3779268691</v>
+      </c>
+      <c r="B76">
+        <v>-6.75054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3779268691</v>
+      </c>
+      <c r="B77">
+        <v>-6.6601600000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3779268691</v>
+      </c>
+      <c r="B78">
+        <v>-6.5774100000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3779268691</v>
+      </c>
+      <c r="B79">
+        <v>-6.5086700000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3779268691</v>
+      </c>
+      <c r="B80">
+        <v>-6.4144699999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3779268691</v>
+      </c>
+      <c r="B81">
+        <v>-6.38774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3779268691</v>
+      </c>
+      <c r="B82">
+        <v>-6.3075400000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3779268691</v>
+      </c>
+      <c r="B83">
+        <v>-6.26553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3779268691</v>
+      </c>
+      <c r="B84">
+        <v>-6.1764200000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3779268691</v>
+      </c>
+      <c r="B85">
+        <v>-6.3508199999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3779268691</v>
+      </c>
+      <c r="B86">
+        <v>-6.5417699999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3779268691</v>
+      </c>
+      <c r="B87">
+        <v>-6.6512500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3779268691</v>
+      </c>
+      <c r="B88">
+        <v>-6.6105099999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3779268691</v>
+      </c>
+      <c r="B89">
+        <v>-6.6168800000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3779268691</v>
+      </c>
+      <c r="B90">
+        <v>-6.5112199999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3779268691</v>
+      </c>
+      <c r="B91">
+        <v>-6.6066900000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3779268691</v>
+      </c>
+      <c r="B92">
+        <v>-6.6054199999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3779268691</v>
+      </c>
+      <c r="B93">
+        <v>-6.5774100000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3779268691</v>
+      </c>
+      <c r="B94">
+        <v>-6.5468599999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3779268691</v>
+      </c>
+      <c r="B95">
+        <v>-6.5417699999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3779268691</v>
+      </c>
+      <c r="B96">
+        <v>-6.54941</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3779268691</v>
+      </c>
+      <c r="B97">
+        <v>-6.6346999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3779268691</v>
+      </c>
+      <c r="B98">
+        <v>-6.59396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3779268691</v>
+      </c>
+      <c r="B99">
+        <v>-6.5455899999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3779268692</v>
+      </c>
+      <c r="B100">
+        <v>-6.5443199999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3779268692</v>
+      </c>
+      <c r="B101">
+        <v>-6.5430400000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3779268692</v>
+      </c>
+      <c r="B102">
+        <v>-6.48576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3779268692</v>
+      </c>
+      <c r="B103">
+        <v>-6.4921199999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3779268692</v>
+      </c>
+      <c r="B104">
+        <v>-6.5099400000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3779268692</v>
+      </c>
+      <c r="B105">
+        <v>-6.3622800000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3779268692</v>
+      </c>
+      <c r="B106">
+        <v>-6.2617099999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3779268692</v>
+      </c>
+      <c r="B107">
+        <v>-6.0478399999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3779268692</v>
+      </c>
+      <c r="B108">
+        <v>-6.4093799999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3779268692</v>
+      </c>
+      <c r="B109">
+        <v>-6.5570500000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3779268692</v>
+      </c>
+      <c r="B110">
+        <v>-6.5354000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3779268692</v>
+      </c>
+      <c r="B111">
+        <v>-6.62324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3779268692</v>
+      </c>
+      <c r="B112">
+        <v>-4.9950700000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3779268692</v>
+      </c>
+      <c r="B113">
+        <v>-1.41029</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3779268692</v>
+      </c>
+      <c r="B114">
+        <v>-5.9116299999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3779268692</v>
+      </c>
+      <c r="B115">
+        <v>-6.6486999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3779268692</v>
+      </c>
+      <c r="B116">
+        <v>-6.8040099999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3779268692</v>
+      </c>
+      <c r="B117">
+        <v>-6.6639799999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3779268692</v>
+      </c>
+      <c r="B118">
+        <v>-6.48576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3779268692</v>
+      </c>
+      <c r="B119">
+        <v>-6.2107900000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3779268692</v>
+      </c>
+      <c r="B120">
+        <v>-6.4882999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3779268692</v>
+      </c>
+      <c r="B121">
+        <v>-6.1942399999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3779268692</v>
+      </c>
+      <c r="B122">
+        <v>-6.0491200000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3779268692</v>
+      </c>
+      <c r="B123">
+        <v>-6.0032899999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3779268692</v>
+      </c>
+      <c r="B124">
+        <v>-5.8747199999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3779268692</v>
+      </c>
+      <c r="B125">
+        <v>-5.5297299999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3779268692</v>
+      </c>
+      <c r="B126">
+        <v>-5.7206799999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3779268692</v>
+      </c>
+      <c r="B127">
+        <v>-5.9052699999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3779268692</v>
+      </c>
+      <c r="B128">
+        <v>-6.1356799999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3779268692</v>
+      </c>
+      <c r="B129">
+        <v>-6.3342700000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3779268692</v>
+      </c>
+      <c r="B130">
+        <v>-6.2400700000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3779268692</v>
+      </c>
+      <c r="B131">
+        <v>-6.3482700000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3779268692</v>
+      </c>
+      <c r="B132">
+        <v>-6.3533600000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3779268692</v>
+      </c>
+      <c r="B133">
+        <v>-6.3826400000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3779268692</v>
+      </c>
+      <c r="B134">
+        <v>-6.2833500000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3779268692</v>
+      </c>
+      <c r="B135">
+        <v>-6.6486999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3779268692</v>
+      </c>
+      <c r="B136">
+        <v>-6.4501099999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3779268692</v>
+      </c>
+      <c r="B137">
+        <v>-6.1955099999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3779268692</v>
+      </c>
+      <c r="B138">
+        <v>-6.1955099999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3779268692</v>
+      </c>
+      <c r="B139">
+        <v>-6.8345599999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3779268692</v>
+      </c>
+      <c r="B140">
+        <v>-6.5315799999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3779268692</v>
+      </c>
+      <c r="B141">
+        <v>-6.5519499999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3779268692</v>
+      </c>
+      <c r="B142">
+        <v>-6.3037200000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3779268692</v>
+      </c>
+      <c r="B143">
+        <v>-6.6296099999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3779268692</v>
+      </c>
+      <c r="B144">
+        <v>-7.0229600000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3779268692</v>
+      </c>
+      <c r="B145">
+        <v>-6.7709099999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3779268692</v>
+      </c>
+      <c r="B146">
+        <v>-6.27698</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3779268692</v>
+      </c>
+      <c r="B147">
+        <v>-4.9441499999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3779268692</v>
+      </c>
+      <c r="B148">
+        <v>-6.4272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3779268692</v>
+      </c>
+      <c r="B149">
+        <v>-6.90585</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3779268693</v>
+      </c>
+      <c r="B150">
+        <v>-7.1477199999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3779268693</v>
+      </c>
+      <c r="B151">
+        <v>-7.13117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3779268693</v>
+      </c>
+      <c r="B152">
+        <v>-6.5812299999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3779268693</v>
+      </c>
+      <c r="B153">
+        <v>-1.4192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3779268693</v>
+      </c>
+      <c r="B154">
+        <v>-5.2407599999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3779268693</v>
+      </c>
+      <c r="B155">
+        <v>-7.1324399999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3779268693</v>
+      </c>
+      <c r="B156">
+        <v>-7.1515399999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3779268693</v>
+      </c>
+      <c r="B157">
+        <v>-7.1706300000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3779268693</v>
+      </c>
+      <c r="B158">
+        <v>-7.1553599999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3779268693</v>
+      </c>
+      <c r="B159">
+        <v>-7.0929799999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3779268693</v>
+      </c>
+      <c r="B160">
+        <v>-6.8116500000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3779268693</v>
+      </c>
+      <c r="B161">
+        <v>-7.1540800000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3779268693</v>
+      </c>
+      <c r="B162">
+        <v>-7.1731800000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3779268693</v>
+      </c>
+      <c r="B163">
+        <v>-7.1349900000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3779268693</v>
+      </c>
+      <c r="B164">
+        <v>-7.1744500000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3779268693</v>
+      </c>
+      <c r="B165">
+        <v>-7.1528099999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3779268693</v>
+      </c>
+      <c r="B166">
+        <v>-6.7963699999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3779268693</v>
+      </c>
+      <c r="B167">
+        <v>-5.9867400000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3779268693</v>
+      </c>
+      <c r="B168">
+        <v>-7.0089600000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3779268693</v>
+      </c>
+      <c r="B169">
+        <v>-7.1502600000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3779268693</v>
+      </c>
+      <c r="B170">
+        <v>-7.0191499999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3779268693</v>
+      </c>
+      <c r="B171">
+        <v>-7.1197100000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3779268693</v>
+      </c>
+      <c r="B172">
+        <v>-6.9860499999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3779268693</v>
+      </c>
+      <c r="B173">
+        <v>-6.8218300000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3779268693</v>
+      </c>
+      <c r="B174">
+        <v>-7.0942499999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3779268693</v>
+      </c>
+      <c r="B175">
+        <v>-7.1439000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3779268693</v>
+      </c>
+      <c r="B176">
+        <v>-6.8243799999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3779268693</v>
+      </c>
+      <c r="B177">
+        <v>-6.6958000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3779268693</v>
+      </c>
+      <c r="B178">
+        <v>-7.1273499999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3779268693</v>
+      </c>
+      <c r="B179">
+        <v>-6.9389500000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3779268693</v>
+      </c>
+      <c r="B180">
+        <v>-6.8205600000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3779268693</v>
+      </c>
+      <c r="B181">
+        <v>-7.1247999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3779268693</v>
+      </c>
+      <c r="B182">
+        <v>-7.0026000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3779268693</v>
+      </c>
+      <c r="B183">
+        <v>-6.8523800000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3779268693</v>
+      </c>
+      <c r="B184">
+        <v>-6.8180100000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3779268693</v>
+      </c>
+      <c r="B185">
+        <v>-6.5697799999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3779268693</v>
+      </c>
+      <c r="B186">
+        <v>-6.5264899999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>3779268693</v>
+      </c>
+      <c r="B187">
+        <v>-6.7912800000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3779268693</v>
+      </c>
+      <c r="B188">
+        <v>-7.0433300000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3779268693</v>
+      </c>
+      <c r="B189">
+        <v>-6.9389500000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3779268693</v>
+      </c>
+      <c r="B190">
+        <v>-7.1095300000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3779268693</v>
+      </c>
+      <c r="B191">
+        <v>-3.1899500000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3779268693</v>
+      </c>
+      <c r="B192">
+        <v>-3.5845799999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3779268693</v>
+      </c>
+      <c r="B193">
+        <v>-6.4373800000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3779268693</v>
+      </c>
+      <c r="B194">
+        <v>-6.9567699999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3779268693</v>
+      </c>
+      <c r="B195">
+        <v>-6.91221</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3779268693</v>
+      </c>
+      <c r="B196">
+        <v>-6.8803900000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3779268693</v>
+      </c>
+      <c r="B197">
+        <v>-6.7594500000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3779268693</v>
+      </c>
+      <c r="B198">
+        <v>-6.4921199999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3779268693</v>
+      </c>
+      <c r="B199">
+        <v>-6.6334299999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3779268694</v>
+      </c>
+      <c r="B200">
+        <v>-6.5354000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3779268694</v>
+      </c>
+      <c r="B201">
+        <v>-6.5073999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3779268694</v>
+      </c>
+      <c r="B202">
+        <v>-6.40428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3779268694</v>
+      </c>
+      <c r="B203">
+        <v>-6.23752</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3779268694</v>
+      </c>
+      <c r="B204">
+        <v>-6.2336999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3779268694</v>
+      </c>
+      <c r="B205">
+        <v>-6.1802400000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3779268694</v>
+      </c>
+      <c r="B206">
+        <v>-6.32409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3779268694</v>
+      </c>
+      <c r="B207">
+        <v>-6.5163099999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3779268694</v>
+      </c>
+      <c r="B208">
+        <v>-6.5634100000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3779268694</v>
+      </c>
+      <c r="B209">
+        <v>-6.5545</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3779268694</v>
+      </c>
+      <c r="B210">
+        <v>-6.4182899999999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3779268694</v>
+      </c>
+      <c r="B211">
+        <v>-6.5557699999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3779268694</v>
+      </c>
+      <c r="B212">
+        <v>-6.5455899999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3779268694</v>
+      </c>
+      <c r="B213">
+        <v>-6.5697799999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3779268694</v>
+      </c>
+      <c r="B214">
+        <v>-6.6385199999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3779268694</v>
+      </c>
+      <c r="B215">
+        <v>-6.72126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3779268694</v>
+      </c>
+      <c r="B216">
+        <v>-6.7403599999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3779268694</v>
+      </c>
+      <c r="B217">
+        <v>-6.8180100000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3779268694</v>
+      </c>
+      <c r="B218">
+        <v>-6.8651099999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3779268694</v>
+      </c>
+      <c r="B219">
+        <v>-6.9529500000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3779268694</v>
+      </c>
+      <c r="B220">
+        <v>-7.0535199999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3779268694</v>
+      </c>
+      <c r="B221">
+        <v>-7.1031599999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3779268694</v>
+      </c>
+      <c r="B222">
+        <v>-7.1069800000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3779268694</v>
+      </c>
+      <c r="B223">
+        <v>-7.0586099999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3779268694</v>
+      </c>
+      <c r="B224">
+        <v>-7.0509700000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3779268694</v>
+      </c>
+      <c r="B225">
+        <v>-7.0802500000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3779268694</v>
+      </c>
+      <c r="B226">
+        <v>-7.1515399999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3779268694</v>
+      </c>
+      <c r="B227">
+        <v>-7.1808199999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3779268694</v>
+      </c>
+      <c r="B228">
+        <v>-7.1769999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3779268694</v>
+      </c>
+      <c r="B229">
+        <v>-7.1871799999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3779268694</v>
+      </c>
+      <c r="B230">
+        <v>-5.7092200000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3779268694</v>
+      </c>
+      <c r="B231">
+        <v>-3.8735499999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3779268694</v>
+      </c>
+      <c r="B232">
+        <v>-7.1757200000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3779268694</v>
+      </c>
+      <c r="B233">
+        <v>-7.1744500000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3779268694</v>
+      </c>
+      <c r="B234">
+        <v>-7.1731800000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3779268694</v>
+      </c>
+      <c r="B235">
+        <v>-7.1820899999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3779268694</v>
+      </c>
+      <c r="B236">
+        <v>-7.1668099999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3779268694</v>
+      </c>
+      <c r="B237">
+        <v>-7.1846399999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3779268694</v>
+      </c>
+      <c r="B238">
+        <v>-7.1706300000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3779268694</v>
+      </c>
+      <c r="B239">
+        <v>-7.1693600000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3779268694</v>
+      </c>
+      <c r="B240">
+        <v>-7.1540800000000004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3779268694</v>
+      </c>
+      <c r="B241">
+        <v>-7.1235299999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3779268694</v>
+      </c>
+      <c r="B242">
+        <v>-6.8447399999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3779268694</v>
+      </c>
+      <c r="B243">
+        <v>-6.7276300000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3779268694</v>
+      </c>
+      <c r="B244">
+        <v>-6.5163099999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3779268694</v>
+      </c>
+      <c r="B245">
+        <v>-6.5315799999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3779268694</v>
+      </c>
+      <c r="B246">
+        <v>-6.0834900000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3779268694</v>
+      </c>
+      <c r="B247">
+        <v>-6.2693500000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3779268694</v>
+      </c>
+      <c r="B248">
+        <v>-5.8517999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3779268694</v>
+      </c>
+      <c r="B249">
+        <v>-5.6481199999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3779268695</v>
+      </c>
+      <c r="B250">
+        <v>-5.4533500000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3779268695</v>
+      </c>
+      <c r="B251">
+        <v>-5.4036999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3779268695</v>
+      </c>
+      <c r="B252">
+        <v>-5.0358099999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3779268695</v>
+      </c>
+      <c r="B253">
+        <v>-5.3515100000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3779268695</v>
+      </c>
+      <c r="B254">
+        <v>-4.7455600000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3779268695</v>
+      </c>
+      <c r="B255">
+        <v>-4.7506500000000003</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3779268695</v>
+      </c>
+      <c r="B256">
+        <v>-4.93269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3779268695</v>
+      </c>
+      <c r="B257">
+        <v>-5.0510799999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3779268695</v>
+      </c>
+      <c r="B258">
+        <v>-4.6208099999999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3779268695</v>
+      </c>
+      <c r="B259">
+        <v>-4.8244899999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3779268695</v>
+      </c>
+      <c r="B260">
+        <v>-4.6717300000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3779268695</v>
+      </c>
+      <c r="B261">
+        <v>-4.9976200000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3779268695</v>
+      </c>
+      <c r="B262">
+        <v>-4.0530499999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3779268695</v>
+      </c>
+      <c r="B263">
+        <v>-4.18926</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3779268695</v>
+      </c>
+      <c r="B264">
+        <v>-3.9308399999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3779268695</v>
+      </c>
+      <c r="B265">
+        <v>-4.3878500000000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3779268695</v>
+      </c>
+      <c r="B266">
+        <v>-3.9232</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3779268695</v>
+      </c>
+      <c r="B267">
+        <v>-5.2331200000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3779268695</v>
+      </c>
+      <c r="B268">
+        <v>-5.2420299999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3779268695</v>
+      </c>
+      <c r="B269">
+        <v>-1.4930399999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3779268695</v>
+      </c>
+      <c r="B270">
+        <v>-1.1900599999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3779268695</v>
+      </c>
+      <c r="B271">
+        <v>-4.3420199999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3779268695</v>
+      </c>
+      <c r="B272">
+        <v>-4.7277399999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3779268695</v>
+      </c>
+      <c r="B273">
+        <v>-5.3476900000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3779268695</v>
+      </c>
+      <c r="B274">
+        <v>-5.21021</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3779268695</v>
+      </c>
+      <c r="B275">
+        <v>-4.9454200000000004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3779268695</v>
+      </c>
+      <c r="B276">
+        <v>-5.1516500000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3779268695</v>
+      </c>
+      <c r="B277">
+        <v>-5.0294400000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3779268695</v>
+      </c>
+      <c r="B278">
+        <v>-4.8741300000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3779268695</v>
+      </c>
+      <c r="B279">
+        <v>-4.4858700000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3779268695</v>
+      </c>
+      <c r="B280">
+        <v>-4.90341</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3779268695</v>
+      </c>
+      <c r="B281">
+        <v>-5.2305799999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>3779268695</v>
+      </c>
+      <c r="B282">
+        <v>-5.0536300000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3779268695</v>
+      </c>
+      <c r="B283">
+        <v>-5.31332</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3779268695</v>
+      </c>
+      <c r="B284">
+        <v>-5.3056799999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3779268695</v>
+      </c>
+      <c r="B285">
+        <v>-5.56792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3779268695</v>
+      </c>
+      <c r="B286">
+        <v>-5.3489699999999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3779268695</v>
+      </c>
+      <c r="B287">
+        <v>-5.7372300000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3779268695</v>
+      </c>
+      <c r="B288">
+        <v>-5.4915399999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>3779268695</v>
+      </c>
+      <c r="B289">
+        <v>-5.3336899999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>3779268695</v>
+      </c>
+      <c r="B290">
+        <v>-5.5450100000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3779268695</v>
+      </c>
+      <c r="B291">
+        <v>-5.3285999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3779268695</v>
+      </c>
+      <c r="B292">
+        <v>-5.5170000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3779268695</v>
+      </c>
+      <c r="B293">
+        <v>-5.3094999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>3779268695</v>
+      </c>
+      <c r="B294">
+        <v>-5.52719</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3779268695</v>
+      </c>
+      <c r="B295">
+        <v>-5.50936</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>3779268695</v>
+      </c>
+      <c r="B296">
+        <v>-5.4266199999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3779268695</v>
+      </c>
+      <c r="B297">
+        <v>-5.3680599999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>3779268695</v>
+      </c>
+      <c r="B298">
+        <v>-5.5030000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3779268695</v>
+      </c>
+      <c r="B299">
+        <v>-5.3489699999999996</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3779268696</v>
+      </c>
+      <c r="B300">
+        <v>-5.0650899999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3779268696</v>
+      </c>
+      <c r="B301">
+        <v>-4.7748400000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3779268696</v>
+      </c>
+      <c r="B302">
+        <v>-5.2585800000000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>3779268696</v>
+      </c>
+      <c r="B303">
+        <v>-5.5781099999999997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>3779268696</v>
+      </c>
+      <c r="B304">
+        <v>-5.4138900000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>3779268696</v>
+      </c>
+      <c r="B305">
+        <v>-5.5399200000000004</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3779268696</v>
+      </c>
+      <c r="B306">
+        <v>-3.8391799999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>3779268696</v>
+      </c>
+      <c r="B307">
+        <v>-0.36515799999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3779268696</v>
+      </c>
+      <c r="B308">
+        <v>-4.6920999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3779268696</v>
+      </c>
+      <c r="B309">
+        <v>-5.5182700000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>3779268696</v>
+      </c>
+      <c r="B310">
+        <v>-5.5921099999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>3779268696</v>
+      </c>
+      <c r="B311">
+        <v>-5.6519399999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3779268696</v>
+      </c>
+      <c r="B312">
+        <v>-5.4902699999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>3779268696</v>
+      </c>
+      <c r="B313">
+        <v>-5.4788100000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>3779268696</v>
+      </c>
+      <c r="B314">
+        <v>-5.3553300000000004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>3779268696</v>
+      </c>
+      <c r="B315">
+        <v>-5.2178500000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>3779268696</v>
+      </c>
+      <c r="B316">
+        <v>-5.09436</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>3779268696</v>
+      </c>
+      <c r="B317">
+        <v>-5.0243500000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>3779268696</v>
+      </c>
+      <c r="B318">
+        <v>-4.9186899999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>3779268696</v>
+      </c>
+      <c r="B319">
+        <v>-4.8728600000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>3779268696</v>
+      </c>
+      <c r="B320">
+        <v>-4.8283100000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>3779268696</v>
+      </c>
+      <c r="B321">
+        <v>-5.0205299999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>3779268696</v>
+      </c>
+      <c r="B322">
+        <v>-5.2178500000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>3779268696</v>
+      </c>
+      <c r="B323">
+        <v>-5.2674899999999996</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>3779268696</v>
+      </c>
+      <c r="B324">
+        <v>-5.3056799999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>3779268696</v>
+      </c>
+      <c r="B325">
+        <v>-5.2904099999999996</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>3779268696</v>
+      </c>
+      <c r="B326">
+        <v>-5.26877</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>3779268696</v>
+      </c>
+      <c r="B327">
+        <v>-5.3464200000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>3779268696</v>
+      </c>
+      <c r="B328">
+        <v>-5.4775400000000003</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>3779268696</v>
+      </c>
+      <c r="B329">
+        <v>-5.5806500000000003</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>3779268696</v>
+      </c>
+      <c r="B330">
+        <v>-5.6850399999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>3779268696</v>
+      </c>
+      <c r="B331">
+        <v>-5.7588699999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>3779268696</v>
+      </c>
+      <c r="B332">
+        <v>-5.91418</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>3779268696</v>
+      </c>
+      <c r="B333">
+        <v>-5.6277499999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>3779268696</v>
+      </c>
+      <c r="B334">
+        <v>-5.5424600000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>3779268696</v>
+      </c>
+      <c r="B335">
+        <v>-5.76396</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3779268696</v>
+      </c>
+      <c r="B336">
+        <v>-6.20824</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>3779268696</v>
+      </c>
+      <c r="B337">
+        <v>-6.3839199999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>3779268696</v>
+      </c>
+      <c r="B338">
+        <v>-6.45648</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>3779268696</v>
+      </c>
+      <c r="B339">
+        <v>-6.4551999999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>3779268696</v>
+      </c>
+      <c r="B340">
+        <v>-2.05443</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>3779268696</v>
+      </c>
+      <c r="B341">
+        <v>-5.0243500000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>3779268696</v>
+      </c>
+      <c r="B342">
+        <v>-6.4386599999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>3779268696</v>
+      </c>
+      <c r="B343">
+        <v>-6.8383799999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>3779268696</v>
+      </c>
+      <c r="B344">
+        <v>-6.8434699999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>3779268696</v>
+      </c>
+      <c r="B345">
+        <v>-6.7683600000000004</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>3779268696</v>
+      </c>
+      <c r="B346">
+        <v>-6.6792499999999997</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>3779268696</v>
+      </c>
+      <c r="B347">
+        <v>-6.5277700000000003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3779268696</v>
+      </c>
+      <c r="B348">
+        <v>-6.3126300000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>3779268696</v>
+      </c>
+      <c r="B349">
+        <v>-6.1955099999999996</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>3779268697</v>
+      </c>
+      <c r="B350">
+        <v>-5.9638299999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>3779268697</v>
+      </c>
+      <c r="B351">
+        <v>-5.8047000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>3779268697</v>
+      </c>
+      <c r="B352">
+        <v>-5.5895599999999996</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>3779268697</v>
+      </c>
+      <c r="B353">
+        <v>-5.4202500000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>3779268697</v>
+      </c>
+      <c r="B354">
+        <v>-5.4915399999999996</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>3779268697</v>
+      </c>
+      <c r="B355">
+        <v>-5.6061100000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3779268697</v>
+      </c>
+      <c r="B356">
+        <v>-5.5551899999999996</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>3779268697</v>
+      </c>
+      <c r="B357">
+        <v>-5.37697</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>3779268697</v>
+      </c>
+      <c r="B358">
+        <v>-5.18729</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3779268697</v>
+      </c>
+      <c r="B359">
+        <v>-5.0841799999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3779268697</v>
+      </c>
+      <c r="B360">
+        <v>-4.95688</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>3779268697</v>
+      </c>
+      <c r="B361">
+        <v>-4.8906799999999997</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>3779268697</v>
+      </c>
+      <c r="B362">
+        <v>-4.8219399999999997</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3779268697</v>
+      </c>
+      <c r="B363">
+        <v>-4.7544700000000004</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>3779268697</v>
+      </c>
+      <c r="B364">
+        <v>-4.4846000000000004</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>3779268697</v>
+      </c>
+      <c r="B365">
+        <v>-4.2401799999999996</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>3779268697</v>
+      </c>
+      <c r="B366">
+        <v>-4.32674</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>3779268697</v>
+      </c>
+      <c r="B367">
+        <v>-4.6602699999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>3779268697</v>
+      </c>
+      <c r="B368">
+        <v>-4.6360799999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>3779268697</v>
+      </c>
+      <c r="B369">
+        <v>-4.5558800000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>3779268697</v>
+      </c>
+      <c r="B370">
+        <v>-4.5151500000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>3779268697</v>
+      </c>
+      <c r="B371">
+        <v>-0.41480499999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3779268697</v>
+      </c>
+      <c r="B372">
+        <v>-2.9417200000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>3779268697</v>
+      </c>
+      <c r="B373">
+        <v>-4.0505000000000004</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>3779268697</v>
+      </c>
+      <c r="B374">
+        <v>-4.4642299999999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>3779268697</v>
+      </c>
+      <c r="B375">
+        <v>-4.5049599999999996</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>3779268697</v>
+      </c>
+      <c r="B376">
+        <v>-4.4171300000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>3779268697</v>
+      </c>
+      <c r="B377">
+        <v>-4.1790799999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>3779268697</v>
+      </c>
+      <c r="B378">
+        <v>-4.0772300000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>3779268697</v>
+      </c>
+      <c r="B379">
+        <v>-3.81372</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>3779268697</v>
+      </c>
+      <c r="B380">
+        <v>-3.7526199999999998</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>3779268697</v>
+      </c>
+      <c r="B381">
+        <v>-2.9977299999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>3779268697</v>
+      </c>
+      <c r="B382">
+        <v>-3.6444100000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>3779268697</v>
+      </c>
+      <c r="B383">
+        <v>-3.2956099999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3779268697</v>
+      </c>
+      <c r="B384">
+        <v>-3.1059299999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>3779268697</v>
+      </c>
+      <c r="B385">
+        <v>-2.6922100000000002</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>3779268697</v>
+      </c>
+      <c r="B386">
+        <v>-3.5591200000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>3779268697</v>
+      </c>
+      <c r="B387">
+        <v>-3.3592599999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>3779268697</v>
+      </c>
+      <c r="B388">
+        <v>-3.0333700000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>3779268697</v>
+      </c>
+      <c r="B389">
+        <v>-2.80932</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>3779268697</v>
+      </c>
+      <c r="B390">
+        <v>-2.7533099999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>3779268697</v>
+      </c>
+      <c r="B391">
+        <v>-2.5763600000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>3779268697</v>
+      </c>
+      <c r="B392">
+        <v>-2.30267</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>3779268697</v>
+      </c>
+      <c r="B393">
+        <v>-2.29121</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>3779268697</v>
+      </c>
+      <c r="B394">
+        <v>-2.8131400000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>3779268697</v>
+      </c>
+      <c r="B395">
+        <v>-2.4783400000000002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3779268697</v>
+      </c>
+      <c r="B396">
+        <v>-2.0035099999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>3779268697</v>
+      </c>
+      <c r="B397">
+        <v>-1.38483</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>3779268697</v>
+      </c>
+      <c r="B398">
+        <v>-2.4185099999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>3779268697</v>
+      </c>
+      <c r="B399">
+        <v>-2.5305399999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>3779268698</v>
+      </c>
+      <c r="B400">
+        <v>-2.3866900000000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>3779268698</v>
+      </c>
+      <c r="B401">
+        <v>-2.1028099999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>3779268698</v>
+      </c>
+      <c r="B402">
+        <v>-2.2784800000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>3779268698</v>
+      </c>
+      <c r="B403">
+        <v>1.6716500000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>3779268698</v>
+      </c>
+      <c r="B404">
+        <v>-0.775065</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>3779268698</v>
+      </c>
+      <c r="B405">
+        <v>-1.9615</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>3779268698</v>
+      </c>
+      <c r="B406">
+        <v>-2.5649099999999998</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>3779268698</v>
+      </c>
+      <c r="B407">
+        <v>-2.57891</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>3779268698</v>
+      </c>
+      <c r="B408">
+        <v>-2.3472200000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>3779268698</v>
+      </c>
+      <c r="B409">
+        <v>-2.3064900000000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>3779268698</v>
+      </c>
+      <c r="B410">
+        <v>-2.2644799999999998</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>3779268698</v>
+      </c>
+      <c r="B411">
+        <v>-2.0467900000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>3779268698</v>
+      </c>
+      <c r="B412">
+        <v>-2.2161</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>3779268698</v>
+      </c>
+      <c r="B413">
+        <v>-1.56687</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>3779268698</v>
+      </c>
+      <c r="B414">
+        <v>-2.1308099999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>3779268698</v>
+      </c>
+      <c r="B415">
+        <v>-1.98569</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>3779268698</v>
+      </c>
+      <c r="B416">
+        <v>-1.98569</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>3779268698</v>
+      </c>
+      <c r="B417">
+        <v>-2.2122899999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>3779268698</v>
+      </c>
+      <c r="B418">
+        <v>-2.3153999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>3779268698</v>
+      </c>
+      <c r="B419">
+        <v>-2.4910700000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>3779268698</v>
+      </c>
+      <c r="B420">
+        <v>-2.4452400000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>3779268698</v>
+      </c>
+      <c r="B421">
+        <v>-2.5127100000000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>3779268698</v>
+      </c>
+      <c r="B422">
+        <v>-2.4745200000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>3779268698</v>
+      </c>
+      <c r="B423">
+        <v>-2.5903700000000001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>3779268698</v>
+      </c>
+      <c r="B424">
+        <v>-2.5763600000000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>3779268698</v>
+      </c>
+      <c r="B425">
+        <v>-2.5941900000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>3779268698</v>
+      </c>
+      <c r="B426">
+        <v>-2.5916399999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>3779268698</v>
+      </c>
+      <c r="B427">
+        <v>-2.4134199999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>3779268698</v>
+      </c>
+      <c r="B428">
+        <v>-2.1804600000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>3779268698</v>
+      </c>
+      <c r="B429">
+        <v>-2.1957399999999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>3779268698</v>
+      </c>
+      <c r="B430">
+        <v>-2.6005500000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>3779268698</v>
+      </c>
+      <c r="B431">
+        <v>-2.7036600000000002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>3779268698</v>
+      </c>
+      <c r="B432">
+        <v>-2.5750899999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>3779268698</v>
+      </c>
+      <c r="B433">
+        <v>-2.7889599999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>3779268698</v>
+      </c>
+      <c r="B434">
+        <v>-0.360066</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>3779268698</v>
+      </c>
+      <c r="B435">
+        <v>1.55962</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>3779268698</v>
+      </c>
+      <c r="B436">
+        <v>-1.9475</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>3779268698</v>
+      </c>
+      <c r="B437">
+        <v>-2.5903700000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>3779268698</v>
+      </c>
+      <c r="B438">
+        <v>-2.67184</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>3779268698</v>
+      </c>
+      <c r="B439">
+        <v>-2.67184</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>3779268698</v>
+      </c>
+      <c r="B440">
+        <v>-2.5992799999999998</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>3779268698</v>
+      </c>
+      <c r="B441">
+        <v>-2.5343599999999999</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>3779268698</v>
+      </c>
+      <c r="B442">
+        <v>-2.5038</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>3779268698</v>
+      </c>
+      <c r="B443">
+        <v>-2.3815900000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>3779268698</v>
+      </c>
+      <c r="B444">
+        <v>-2.1957399999999998</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>3779268698</v>
+      </c>
+      <c r="B445">
+        <v>-2.0748000000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>3779268698</v>
+      </c>
+      <c r="B446">
+        <v>-1.9411400000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>3779268698</v>
+      </c>
+      <c r="B447">
+        <v>-1.89022</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>3779268698</v>
+      </c>
+      <c r="B448">
+        <v>-2.0098799999999999</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>3779268698</v>
+      </c>
+      <c r="B449">
+        <v>-2.1944599999999999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>3779268699</v>
+      </c>
+      <c r="B450">
+        <v>-2.4070499999999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>3779268699</v>
+      </c>
+      <c r="B451">
+        <v>-2.3357700000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>3779268699</v>
+      </c>
+      <c r="B452">
+        <v>-2.3332199999999998</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>3779268699</v>
+      </c>
+      <c r="B453">
+        <v>-2.3472200000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>3779268699</v>
+      </c>
+      <c r="B454">
+        <v>-2.3612299999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>3779268699</v>
+      </c>
+      <c r="B455">
+        <v>-2.4210600000000002</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>3779268699</v>
+      </c>
+      <c r="B456">
+        <v>-2.4936199999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>3779268699</v>
+      </c>
+      <c r="B457">
+        <v>-2.4388800000000002</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>3779268699</v>
+      </c>
+      <c r="B458">
+        <v>-2.4528799999999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>3779268699</v>
+      </c>
+      <c r="B459">
+        <v>-2.2262900000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>3779268699</v>
+      </c>
+      <c r="B460">
+        <v>-2.0391599999999999</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>3779268699</v>
+      </c>
+      <c r="B461">
+        <v>-2.1320899999999998</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>3779268699</v>
+      </c>
+      <c r="B462">
+        <v>-2.54454</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>3779268699</v>
+      </c>
+      <c r="B463">
+        <v>-2.5407199999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>3779268699</v>
+      </c>
+      <c r="B464">
+        <v>-2.4528799999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>3779268699</v>
+      </c>
+      <c r="B465">
+        <v>-2.7418499999999999</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>3779268699</v>
+      </c>
+      <c r="B466">
+        <v>0.63796900000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>3779268699</v>
+      </c>
+      <c r="B467">
+        <v>0.44701800000000003</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>3779268699</v>
+      </c>
+      <c r="B468">
+        <v>-2.0557099999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>3779268699</v>
+      </c>
+      <c r="B469">
+        <v>-2.4668899999999998</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>3779268699</v>
+      </c>
+      <c r="B470">
+        <v>-2.4159700000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>3779268699</v>
+      </c>
+      <c r="B471">
+        <v>-2.3204899999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>3779268699</v>
+      </c>
+      <c r="B472">
+        <v>-2.1842800000000002</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>3779268699</v>
+      </c>
+      <c r="B473">
+        <v>-2.0149699999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>3779268699</v>
+      </c>
+      <c r="B474">
+        <v>-1.8673</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>3779268699</v>
+      </c>
+      <c r="B475">
+        <v>-1.74255</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>3779268699</v>
+      </c>
+      <c r="B476">
+        <v>-1.6139699999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>3779268699</v>
+      </c>
+      <c r="B477">
+        <v>-1.4726699999999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>3779268699</v>
+      </c>
+      <c r="B478">
+        <v>-1.3313699999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>3779268699</v>
+      </c>
+      <c r="B479">
+        <v>-1.27281</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>3779268699</v>
+      </c>
+      <c r="B480">
+        <v>-1.44339</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>3779268699</v>
+      </c>
+      <c r="B481">
+        <v>-1.6699900000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>3779268699</v>
+      </c>
+      <c r="B482">
+        <v>-1.74637</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>3779268699</v>
+      </c>
+      <c r="B483">
+        <v>-1.7578199999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>3779268699</v>
+      </c>
+      <c r="B484">
+        <v>-1.6839900000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>3779268699</v>
+      </c>
+      <c r="B485">
+        <v>-1.63561</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>3779268699</v>
+      </c>
+      <c r="B486">
+        <v>-1.6381600000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>3779268699</v>
+      </c>
+      <c r="B487">
+        <v>-1.6063400000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>3779268699</v>
+      </c>
+      <c r="B488">
+        <v>-1.57196</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>3779268699</v>
+      </c>
+      <c r="B489">
+        <v>-1.5808800000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>3779268699</v>
+      </c>
+      <c r="B490">
+        <v>-1.5770599999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>3779268699</v>
+      </c>
+      <c r="B491">
+        <v>-1.5261400000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>3779268699</v>
+      </c>
+      <c r="B492">
+        <v>-1.2829900000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>3779268699</v>
+      </c>
+      <c r="B493">
+        <v>-1.0780400000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>3779268699</v>
+      </c>
+      <c r="B494">
+        <v>-1.1849700000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>3779268699</v>
+      </c>
+      <c r="B495">
+        <v>-1.5465</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>3779268699</v>
+      </c>
+      <c r="B496">
+        <v>-1.58724</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>3779268699</v>
+      </c>
+      <c r="B497">
+        <v>-1.5057700000000001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>3779268699</v>
+      </c>
+      <c r="B498">
+        <v>-1.8316600000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>3779268699</v>
+      </c>
+      <c r="B499">
+        <v>2.0077199999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>3779268700</v>
+      </c>
+      <c r="B500">
+        <v>0.59723300000000001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>3779268700</v>
+      </c>
+      <c r="B501">
+        <v>-1.2168000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labb/ECG Labb/ECG_Mans.xlsx
+++ b/Labb/ECG Labb/ECG_Mans.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windfäll\Documents\GitHub\MatLab\Labb\ECG Labb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaay\Documents\GitHub\MatLab\Labb\ECG Labb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5FC0B7-3DA2-48F8-8EFE-FC6A1CB3EDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856B689-C8C8-401A-9504-8EA6670D13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -348,15 +359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F495" sqref="F495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -364,4004 +375,6007 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3779268690</v>
+        <f>C2/$D$2</f>
+        <v>0.02</v>
       </c>
       <c r="B2">
         <v>-5.9230900000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3779268690</v>
+        <f t="shared" ref="A3:A66" si="0">C3/$D$2</f>
+        <v>0.04</v>
       </c>
       <c r="B3">
         <v>-5.8186999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.06</v>
       </c>
       <c r="B4">
         <v>-5.8619899999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.08</v>
       </c>
       <c r="B5">
         <v>-6.0949400000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
       <c r="B6">
         <v>-6.2451600000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.12</v>
       </c>
       <c r="B7">
         <v>-6.2667999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B8">
         <v>-6.2515200000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
       <c r="B9">
         <v>-6.2069700000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.18</v>
       </c>
       <c r="B10">
         <v>-6.2069700000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="B11">
         <v>-6.20824</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.22</v>
       </c>
       <c r="B12">
         <v>-6.2235199999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.24</v>
       </c>
       <c r="B13">
         <v>-6.2336999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.26</v>
       </c>
       <c r="B14">
         <v>-6.23116</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B15">
         <v>-6.2158800000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
       <c r="B16">
         <v>-6.2196999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.32</v>
       </c>
       <c r="B17">
         <v>-6.2222499999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.34</v>
       </c>
       <c r="B18">
         <v>-6.2146100000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.36</v>
       </c>
       <c r="B19">
         <v>-6.2069700000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.38</v>
       </c>
       <c r="B20">
         <v>-6.1955099999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="B21">
         <v>-6.2286099999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.42</v>
       </c>
       <c r="B22">
         <v>-6.2235199999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.44</v>
       </c>
       <c r="B23">
         <v>-6.2095200000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.46</v>
       </c>
       <c r="B24">
         <v>-6.0122</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
       <c r="B25">
         <v>-5.8416199999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="B26">
         <v>-5.9663700000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.52</v>
       </c>
       <c r="B27">
         <v>-6.2680699999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
       <c r="B28">
         <v>-6.3189900000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B29">
         <v>-6.3317199999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B30">
         <v>-6.34063</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="B31">
         <v>-1.8418399999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.62</v>
       </c>
       <c r="B32">
         <v>-4.69719</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.64</v>
       </c>
       <c r="B33">
         <v>-6.2260600000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.66</v>
       </c>
       <c r="B34">
         <v>-6.5901399999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.68</v>
       </c>
       <c r="B35">
         <v>-6.5990500000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="B36">
         <v>-6.58887</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="B37">
         <v>-6.5277700000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.74</v>
       </c>
       <c r="B38">
         <v>-6.4577499999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.76</v>
       </c>
       <c r="B39">
         <v>-6.3737300000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.78</v>
       </c>
       <c r="B40">
         <v>-6.3126300000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="B41">
         <v>-6.2260600000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.82</v>
       </c>
       <c r="B42">
         <v>-6.1509600000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.84</v>
       </c>
       <c r="B43">
         <v>-6.0885800000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.86</v>
       </c>
       <c r="B44">
         <v>-6.0223800000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="B45">
         <v>-6.0796700000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="B46">
         <v>-6.3126300000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.92</v>
       </c>
       <c r="B47">
         <v>-6.4781199999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.94</v>
       </c>
       <c r="B48">
         <v>-6.4704800000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3779268690</v>
+        <f t="shared" si="0"/>
+        <v>0.96</v>
       </c>
       <c r="B49">
         <v>-6.4195599999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>0.98</v>
       </c>
       <c r="B50">
         <v>-6.3890099999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>-6.4157400000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.02</v>
       </c>
       <c r="B52">
         <v>-6.4373800000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.04</v>
       </c>
       <c r="B53">
         <v>-6.4335599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.06</v>
       </c>
       <c r="B54">
         <v>-6.4743000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.08</v>
       </c>
       <c r="B55">
         <v>-6.4577499999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B56">
         <v>-6.4603000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B57">
         <v>-6.4526599999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B58">
         <v>-6.4590199999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="B59">
         <v>-6.4590199999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.18</v>
       </c>
       <c r="B60">
         <v>-6.4462900000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="B61">
         <v>-6.45648</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.22</v>
       </c>
       <c r="B62">
         <v>-6.4501099999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.24</v>
       </c>
       <c r="B63">
         <v>-6.3609999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.26</v>
       </c>
       <c r="B64">
         <v>-6.2095200000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.28</v>
       </c>
       <c r="B65">
         <v>-6.0529400000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3779268691</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="B66">
         <v>-6.2999000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3779268691</v>
+        <f t="shared" ref="A67:A130" si="1">C67/$D$2</f>
+        <v>1.32</v>
       </c>
       <c r="B67">
         <v>-6.5417699999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.34</v>
       </c>
       <c r="B68">
         <v>-6.5634100000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.36</v>
       </c>
       <c r="B69">
         <v>-6.6117800000000004</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.38</v>
       </c>
       <c r="B70">
         <v>-5.2560399999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="B71">
         <v>-1.37338</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.42</v>
       </c>
       <c r="B72">
         <v>-5.8823499999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.44</v>
       </c>
       <c r="B73">
         <v>-6.6677999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.46</v>
       </c>
       <c r="B74">
         <v>-6.8269200000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.48</v>
       </c>
       <c r="B75">
         <v>-6.81419</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="B76">
         <v>-6.75054</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.52</v>
       </c>
       <c r="B77">
         <v>-6.6601600000000003</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.54</v>
       </c>
       <c r="B78">
         <v>-6.5774100000000004</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.56</v>
       </c>
       <c r="B79">
         <v>-6.5086700000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.58</v>
       </c>
       <c r="B80">
         <v>-6.4144699999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.6</v>
       </c>
       <c r="B81">
         <v>-6.38774</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.62</v>
       </c>
       <c r="B82">
         <v>-6.3075400000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.64</v>
       </c>
       <c r="B83">
         <v>-6.26553</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.66</v>
       </c>
       <c r="B84">
         <v>-6.1764200000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.68</v>
       </c>
       <c r="B85">
         <v>-6.3508199999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.7</v>
       </c>
       <c r="B86">
         <v>-6.5417699999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.72</v>
       </c>
       <c r="B87">
         <v>-6.6512500000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.74</v>
       </c>
       <c r="B88">
         <v>-6.6105099999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.76</v>
       </c>
       <c r="B89">
         <v>-6.6168800000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.78</v>
       </c>
       <c r="B90">
         <v>-6.5112199999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.8</v>
       </c>
       <c r="B91">
         <v>-6.6066900000000004</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.82</v>
       </c>
       <c r="B92">
         <v>-6.6054199999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.84</v>
       </c>
       <c r="B93">
         <v>-6.5774100000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.86</v>
       </c>
       <c r="B94">
         <v>-6.5468599999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.88</v>
       </c>
       <c r="B95">
         <v>-6.5417699999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.9</v>
       </c>
       <c r="B96">
         <v>-6.54941</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.92</v>
       </c>
       <c r="B97">
         <v>-6.6346999999999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.94</v>
       </c>
       <c r="B98">
         <v>-6.59396</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3779268691</v>
+        <f t="shared" si="1"/>
+        <v>1.96</v>
       </c>
       <c r="B99">
         <v>-6.5455899999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>1.98</v>
       </c>
       <c r="B100">
         <v>-6.5443199999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B101">
         <v>-6.5430400000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.02</v>
       </c>
       <c r="B102">
         <v>-6.48576</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.04</v>
       </c>
       <c r="B103">
         <v>-6.4921199999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.06</v>
       </c>
       <c r="B104">
         <v>-6.5099400000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.08</v>
       </c>
       <c r="B105">
         <v>-6.3622800000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.1</v>
       </c>
       <c r="B106">
         <v>-6.2617099999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.12</v>
       </c>
       <c r="B107">
         <v>-6.0478399999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.14</v>
       </c>
       <c r="B108">
         <v>-6.4093799999999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.16</v>
       </c>
       <c r="B109">
         <v>-6.5570500000000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.1800000000000002</v>
       </c>
       <c r="B110">
         <v>-6.5354000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B111">
         <v>-6.62324</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B112">
         <v>-4.9950700000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2400000000000002</v>
       </c>
       <c r="B113">
         <v>-1.41029</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
       </c>
       <c r="B114">
         <v>-5.9116299999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B115">
         <v>-6.6486999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B116">
         <v>-6.8040099999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998</v>
       </c>
       <c r="B117">
         <v>-6.6639799999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.34</v>
       </c>
       <c r="B118">
         <v>-6.48576</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.36</v>
       </c>
       <c r="B119">
         <v>-6.2107900000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.38</v>
       </c>
       <c r="B120">
         <v>-6.4882999999999997</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.4</v>
       </c>
       <c r="B121">
         <v>-6.1942399999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.42</v>
       </c>
       <c r="B122">
         <v>-6.0491200000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.44</v>
       </c>
       <c r="B123">
         <v>-6.0032899999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.46</v>
       </c>
       <c r="B124">
         <v>-5.8747199999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.48</v>
       </c>
       <c r="B125">
         <v>-5.5297299999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
       <c r="B126">
         <v>-5.7206799999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.52</v>
       </c>
       <c r="B127">
         <v>-5.9052699999999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.54</v>
       </c>
       <c r="B128">
         <v>-6.1356799999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.56</v>
       </c>
       <c r="B129">
         <v>-6.3342700000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>3779268692</v>
+        <f t="shared" si="1"/>
+        <v>2.58</v>
       </c>
       <c r="B130">
         <v>-6.2400700000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>3779268692</v>
+        <f t="shared" ref="A131:A194" si="2">C131/$D$2</f>
+        <v>2.6</v>
       </c>
       <c r="B131">
         <v>-6.3482700000000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.62</v>
       </c>
       <c r="B132">
         <v>-6.3533600000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.64</v>
       </c>
       <c r="B133">
         <v>-6.3826400000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.66</v>
       </c>
       <c r="B134">
         <v>-6.2833500000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.68</v>
       </c>
       <c r="B135">
         <v>-6.6486999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.7</v>
       </c>
       <c r="B136">
         <v>-6.4501099999999996</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.72</v>
       </c>
       <c r="B137">
         <v>-6.1955099999999996</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.74</v>
       </c>
       <c r="B138">
         <v>-6.1955099999999996</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.76</v>
       </c>
       <c r="B139">
         <v>-6.8345599999999997</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.78</v>
       </c>
       <c r="B140">
         <v>-6.5315799999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.8</v>
       </c>
       <c r="B141">
         <v>-6.5519499999999997</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.82</v>
       </c>
       <c r="B142">
         <v>-6.3037200000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.84</v>
       </c>
       <c r="B143">
         <v>-6.6296099999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.86</v>
       </c>
       <c r="B144">
         <v>-7.0229600000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.88</v>
       </c>
       <c r="B145">
         <v>-6.7709099999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.9</v>
       </c>
       <c r="B146">
         <v>-6.27698</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.92</v>
       </c>
       <c r="B147">
         <v>-4.9441499999999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.94</v>
       </c>
       <c r="B148">
         <v>-6.4272</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>3779268692</v>
+        <f t="shared" si="2"/>
+        <v>2.96</v>
       </c>
       <c r="B149">
         <v>-6.90585</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>2.98</v>
       </c>
       <c r="B150">
         <v>-7.1477199999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B151">
         <v>-7.13117</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.02</v>
       </c>
       <c r="B152">
         <v>-6.5812299999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.04</v>
       </c>
       <c r="B153">
         <v>-1.4192</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.06</v>
       </c>
       <c r="B154">
         <v>-5.2407599999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.08</v>
       </c>
       <c r="B155">
         <v>-7.1324399999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.1</v>
       </c>
       <c r="B156">
         <v>-7.1515399999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.12</v>
       </c>
       <c r="B157">
         <v>-7.1706300000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.14</v>
       </c>
       <c r="B158">
         <v>-7.1553599999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.16</v>
       </c>
       <c r="B159">
         <v>-7.0929799999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.18</v>
       </c>
       <c r="B160">
         <v>-6.8116500000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.2</v>
       </c>
       <c r="B161">
         <v>-7.1540800000000004</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.22</v>
       </c>
       <c r="B162">
         <v>-7.1731800000000003</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.24</v>
       </c>
       <c r="B163">
         <v>-7.1349900000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.26</v>
       </c>
       <c r="B164">
         <v>-7.1744500000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.28</v>
       </c>
       <c r="B165">
         <v>-7.1528099999999997</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.3</v>
       </c>
       <c r="B166">
         <v>-6.7963699999999996</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.32</v>
       </c>
       <c r="B167">
         <v>-5.9867400000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.34</v>
       </c>
       <c r="B168">
         <v>-7.0089600000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.36</v>
       </c>
       <c r="B169">
         <v>-7.1502600000000003</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.38</v>
       </c>
       <c r="B170">
         <v>-7.0191499999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.4</v>
       </c>
       <c r="B171">
         <v>-7.1197100000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.42</v>
       </c>
       <c r="B172">
         <v>-6.9860499999999996</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.44</v>
       </c>
       <c r="B173">
         <v>-6.8218300000000003</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.46</v>
       </c>
       <c r="B174">
         <v>-7.0942499999999997</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.48</v>
       </c>
       <c r="B175">
         <v>-7.1439000000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.5</v>
       </c>
       <c r="B176">
         <v>-6.8243799999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.52</v>
       </c>
       <c r="B177">
         <v>-6.6958000000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.54</v>
       </c>
       <c r="B178">
         <v>-7.1273499999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.56</v>
       </c>
       <c r="B179">
         <v>-6.9389500000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.58</v>
       </c>
       <c r="B180">
         <v>-6.8205600000000004</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.6</v>
       </c>
       <c r="B181">
         <v>-7.1247999999999996</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.62</v>
       </c>
       <c r="B182">
         <v>-7.0026000000000002</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.64</v>
       </c>
       <c r="B183">
         <v>-6.8523800000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.66</v>
       </c>
       <c r="B184">
         <v>-6.8180100000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.68</v>
       </c>
       <c r="B185">
         <v>-6.5697799999999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.7</v>
       </c>
       <c r="B186">
         <v>-6.5264899999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.72</v>
       </c>
       <c r="B187">
         <v>-6.7912800000000004</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.74</v>
       </c>
       <c r="B188">
         <v>-7.0433300000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.76</v>
       </c>
       <c r="B189">
         <v>-6.9389500000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.78</v>
       </c>
       <c r="B190">
         <v>-7.1095300000000003</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.8</v>
       </c>
       <c r="B191">
         <v>-3.1899500000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.82</v>
       </c>
       <c r="B192">
         <v>-3.5845799999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.84</v>
       </c>
       <c r="B193">
         <v>-6.4373800000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3779268693</v>
+        <f t="shared" si="2"/>
+        <v>3.86</v>
       </c>
       <c r="B194">
         <v>-6.9567699999999997</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3779268693</v>
+        <f t="shared" ref="A195:A258" si="3">C195/$D$2</f>
+        <v>3.88</v>
       </c>
       <c r="B195">
         <v>-6.91221</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3779268693</v>
+        <f t="shared" si="3"/>
+        <v>3.9</v>
       </c>
       <c r="B196">
         <v>-6.8803900000000002</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3779268693</v>
+        <f t="shared" si="3"/>
+        <v>3.92</v>
       </c>
       <c r="B197">
         <v>-6.7594500000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3779268693</v>
+        <f t="shared" si="3"/>
+        <v>3.94</v>
       </c>
       <c r="B198">
         <v>-6.4921199999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3779268693</v>
+        <f t="shared" si="3"/>
+        <v>3.96</v>
       </c>
       <c r="B199">
         <v>-6.6334299999999997</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>3.98</v>
       </c>
       <c r="B200">
         <v>-6.5354000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="B201">
         <v>-6.5073999999999996</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B202">
         <v>-6.40428</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.04</v>
       </c>
       <c r="B203">
         <v>-6.23752</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B204">
         <v>-6.2336999999999998</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.08</v>
       </c>
       <c r="B205">
         <v>-6.1802400000000004</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B206">
         <v>-6.32409</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.12</v>
       </c>
       <c r="B207">
         <v>-6.5163099999999998</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.1399999999999997</v>
       </c>
       <c r="B208">
         <v>-6.5634100000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.16</v>
       </c>
       <c r="B209">
         <v>-6.5545</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.18</v>
       </c>
       <c r="B210">
         <v>-6.4182899999999998</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.2</v>
       </c>
       <c r="B211">
         <v>-6.5557699999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.22</v>
       </c>
       <c r="B212">
         <v>-6.5455899999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.24</v>
       </c>
       <c r="B213">
         <v>-6.5697799999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.26</v>
       </c>
       <c r="B214">
         <v>-6.6385199999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.28</v>
       </c>
       <c r="B215">
         <v>-6.72126</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.3</v>
       </c>
       <c r="B216">
         <v>-6.7403599999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.32</v>
       </c>
       <c r="B217">
         <v>-6.8180100000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.34</v>
       </c>
       <c r="B218">
         <v>-6.8651099999999996</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.3600000000000003</v>
       </c>
       <c r="B219">
         <v>-6.9529500000000004</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.38</v>
       </c>
       <c r="B220">
         <v>-7.0535199999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B221">
         <v>-7.1031599999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.42</v>
       </c>
       <c r="B222">
         <v>-7.1069800000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.4400000000000004</v>
       </c>
       <c r="B223">
         <v>-7.0586099999999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.46</v>
       </c>
       <c r="B224">
         <v>-7.0509700000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="B225">
         <v>-7.0802500000000004</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="B226">
         <v>-7.1515399999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B227">
         <v>-7.1808199999999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.54</v>
       </c>
       <c r="B228">
         <v>-7.1769999999999996</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.5599999999999996</v>
       </c>
       <c r="B229">
         <v>-7.1871799999999997</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.58</v>
       </c>
       <c r="B230">
         <v>-5.7092200000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B231">
         <v>-3.8735499999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.62</v>
       </c>
       <c r="B232">
         <v>-7.1757200000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.6399999999999997</v>
       </c>
       <c r="B233">
         <v>-7.1744500000000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.66</v>
       </c>
       <c r="B234">
         <v>-7.1731800000000003</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.68</v>
       </c>
       <c r="B235">
         <v>-7.1820899999999996</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.7</v>
       </c>
       <c r="B236">
         <v>-7.1668099999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.72</v>
       </c>
       <c r="B237">
         <v>-7.1846399999999999</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.74</v>
       </c>
       <c r="B238">
         <v>-7.1706300000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.76</v>
       </c>
       <c r="B239">
         <v>-7.1693600000000002</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.78</v>
       </c>
       <c r="B240">
         <v>-7.1540800000000004</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.8</v>
       </c>
       <c r="B241">
         <v>-7.1235299999999997</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.82</v>
       </c>
       <c r="B242">
         <v>-6.8447399999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.84</v>
       </c>
       <c r="B243">
         <v>-6.7276300000000004</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.8600000000000003</v>
       </c>
       <c r="B244">
         <v>-6.5163099999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.88</v>
       </c>
       <c r="B245">
         <v>-6.5315799999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B246">
         <v>-6.0834900000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.92</v>
       </c>
       <c r="B247">
         <v>-6.2693500000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.9400000000000004</v>
       </c>
       <c r="B248">
         <v>-5.8517999999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>3779268694</v>
+        <f t="shared" si="3"/>
+        <v>4.96</v>
       </c>
       <c r="B249">
         <v>-5.6481199999999996</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>4.9800000000000004</v>
       </c>
       <c r="B250">
         <v>-5.4533500000000004</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="B251">
         <v>-5.4036999999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B252">
         <v>-5.0358099999999997</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.04</v>
       </c>
       <c r="B253">
         <v>-5.3515100000000002</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.0599999999999996</v>
       </c>
       <c r="B254">
         <v>-4.7455600000000002</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.08</v>
       </c>
       <c r="B255">
         <v>-4.7506500000000003</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B256">
         <v>-4.93269</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.12</v>
       </c>
       <c r="B257">
         <v>-5.0510799999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>3779268695</v>
+        <f t="shared" si="3"/>
+        <v>5.14</v>
       </c>
       <c r="B258">
         <v>-4.6208099999999996</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>3779268695</v>
+        <f t="shared" ref="A259:A322" si="4">C259/$D$2</f>
+        <v>5.16</v>
       </c>
       <c r="B259">
         <v>-4.8244899999999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.18</v>
       </c>
       <c r="B260">
         <v>-4.6717300000000002</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.2</v>
       </c>
       <c r="B261">
         <v>-4.9976200000000004</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.22</v>
       </c>
       <c r="B262">
         <v>-4.0530499999999998</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.24</v>
       </c>
       <c r="B263">
         <v>-4.18926</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.26</v>
       </c>
       <c r="B264">
         <v>-3.9308399999999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.28</v>
       </c>
       <c r="B265">
         <v>-4.3878500000000003</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.3</v>
       </c>
       <c r="B266">
         <v>-3.9232</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.32</v>
       </c>
       <c r="B267">
         <v>-5.2331200000000004</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.34</v>
       </c>
       <c r="B268">
         <v>-5.2420299999999997</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.36</v>
       </c>
       <c r="B269">
         <v>-1.4930399999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.38</v>
       </c>
       <c r="B270">
         <v>-1.1900599999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.4</v>
       </c>
       <c r="B271">
         <v>-4.3420199999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.42</v>
       </c>
       <c r="B272">
         <v>-4.7277399999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.44</v>
       </c>
       <c r="B273">
         <v>-5.3476900000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.46</v>
       </c>
       <c r="B274">
         <v>-5.21021</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.48</v>
       </c>
       <c r="B275">
         <v>-4.9454200000000004</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.5</v>
       </c>
       <c r="B276">
         <v>-5.1516500000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.52</v>
       </c>
       <c r="B277">
         <v>-5.0294400000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.54</v>
       </c>
       <c r="B278">
         <v>-4.8741300000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.56</v>
       </c>
       <c r="B279">
         <v>-4.4858700000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.58</v>
       </c>
       <c r="B280">
         <v>-4.90341</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.6</v>
       </c>
       <c r="B281">
         <v>-5.2305799999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.62</v>
       </c>
       <c r="B282">
         <v>-5.0536300000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.64</v>
       </c>
       <c r="B283">
         <v>-5.31332</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.66</v>
       </c>
       <c r="B284">
         <v>-5.3056799999999997</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.68</v>
       </c>
       <c r="B285">
         <v>-5.56792</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.7</v>
       </c>
       <c r="B286">
         <v>-5.3489699999999996</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.72</v>
       </c>
       <c r="B287">
         <v>-5.7372300000000003</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.74</v>
       </c>
       <c r="B288">
         <v>-5.4915399999999996</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.76</v>
       </c>
       <c r="B289">
         <v>-5.3336899999999998</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.78</v>
       </c>
       <c r="B290">
         <v>-5.5450100000000004</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.8</v>
       </c>
       <c r="B291">
         <v>-5.3285999999999998</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.82</v>
       </c>
       <c r="B292">
         <v>-5.5170000000000003</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.84</v>
       </c>
       <c r="B293">
         <v>-5.3094999999999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.86</v>
       </c>
       <c r="B294">
         <v>-5.52719</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.88</v>
       </c>
       <c r="B295">
         <v>-5.50936</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.9</v>
       </c>
       <c r="B296">
         <v>-5.4266199999999998</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.92</v>
       </c>
       <c r="B297">
         <v>-5.3680599999999998</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.94</v>
       </c>
       <c r="B298">
         <v>-5.5030000000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>3779268695</v>
+        <f t="shared" si="4"/>
+        <v>5.96</v>
       </c>
       <c r="B299">
         <v>-5.3489699999999996</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>5.98</v>
       </c>
       <c r="B300">
         <v>-5.0650899999999996</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="B301">
         <v>-4.7748400000000002</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.02</v>
       </c>
       <c r="B302">
         <v>-5.2585800000000003</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.04</v>
       </c>
       <c r="B303">
         <v>-5.5781099999999997</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.06</v>
       </c>
       <c r="B304">
         <v>-5.4138900000000003</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.08</v>
       </c>
       <c r="B305">
         <v>-5.5399200000000004</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.1</v>
       </c>
       <c r="B306">
         <v>-3.8391799999999998</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.12</v>
       </c>
       <c r="B307">
         <v>-0.36515799999999998</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.14</v>
       </c>
       <c r="B308">
         <v>-4.6920999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.16</v>
       </c>
       <c r="B309">
         <v>-5.5182700000000002</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.18</v>
       </c>
       <c r="B310">
         <v>-5.5921099999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.2</v>
       </c>
       <c r="B311">
         <v>-5.6519399999999997</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.22</v>
       </c>
       <c r="B312">
         <v>-5.4902699999999998</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.24</v>
       </c>
       <c r="B313">
         <v>-5.4788100000000002</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.26</v>
       </c>
       <c r="B314">
         <v>-5.3553300000000004</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.28</v>
       </c>
       <c r="B315">
         <v>-5.2178500000000003</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.3</v>
       </c>
       <c r="B316">
         <v>-5.09436</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.32</v>
       </c>
       <c r="B317">
         <v>-5.0243500000000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.34</v>
       </c>
       <c r="B318">
         <v>-4.9186899999999998</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.36</v>
       </c>
       <c r="B319">
         <v>-4.8728600000000002</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.38</v>
       </c>
       <c r="B320">
         <v>-4.8283100000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.4</v>
       </c>
       <c r="B321">
         <v>-5.0205299999999999</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>3779268696</v>
+        <f t="shared" si="4"/>
+        <v>6.42</v>
       </c>
       <c r="B322">
         <v>-5.2178500000000003</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>3779268696</v>
+        <f t="shared" ref="A323:A386" si="5">C323/$D$2</f>
+        <v>6.44</v>
       </c>
       <c r="B323">
         <v>-5.2674899999999996</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.46</v>
       </c>
       <c r="B324">
         <v>-5.3056799999999997</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.48</v>
       </c>
       <c r="B325">
         <v>-5.2904099999999996</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="B326">
         <v>-5.26877</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.52</v>
       </c>
       <c r="B327">
         <v>-5.3464200000000002</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.54</v>
       </c>
       <c r="B328">
         <v>-5.4775400000000003</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.56</v>
       </c>
       <c r="B329">
         <v>-5.5806500000000003</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.58</v>
       </c>
       <c r="B330">
         <v>-5.6850399999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.6</v>
       </c>
       <c r="B331">
         <v>-5.7588699999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.62</v>
       </c>
       <c r="B332">
         <v>-5.91418</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.64</v>
       </c>
       <c r="B333">
         <v>-5.6277499999999998</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.66</v>
       </c>
       <c r="B334">
         <v>-5.5424600000000002</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.68</v>
       </c>
       <c r="B335">
         <v>-5.76396</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.7</v>
       </c>
       <c r="B336">
         <v>-6.20824</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.72</v>
       </c>
       <c r="B337">
         <v>-6.3839199999999998</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.74</v>
       </c>
       <c r="B338">
         <v>-6.45648</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.76</v>
       </c>
       <c r="B339">
         <v>-6.4551999999999996</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.78</v>
       </c>
       <c r="B340">
         <v>-2.05443</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.8</v>
       </c>
       <c r="B341">
         <v>-5.0243500000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.82</v>
       </c>
       <c r="B342">
         <v>-6.4386599999999996</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.84</v>
       </c>
       <c r="B343">
         <v>-6.8383799999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.86</v>
       </c>
       <c r="B344">
         <v>-6.8434699999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.88</v>
       </c>
       <c r="B345">
         <v>-6.7683600000000004</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.9</v>
       </c>
       <c r="B346">
         <v>-6.6792499999999997</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.92</v>
       </c>
       <c r="B347">
         <v>-6.5277700000000003</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.94</v>
       </c>
       <c r="B348">
         <v>-6.3126300000000004</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>3779268696</v>
+        <f t="shared" si="5"/>
+        <v>6.96</v>
       </c>
       <c r="B349">
         <v>-6.1955099999999996</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>6.98</v>
       </c>
       <c r="B350">
         <v>-5.9638299999999997</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="B351">
         <v>-5.8047000000000004</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.02</v>
       </c>
       <c r="B352">
         <v>-5.5895599999999996</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.04</v>
       </c>
       <c r="B353">
         <v>-5.4202500000000002</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.06</v>
       </c>
       <c r="B354">
         <v>-5.4915399999999996</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.08</v>
       </c>
       <c r="B355">
         <v>-5.6061100000000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.1</v>
       </c>
       <c r="B356">
         <v>-5.5551899999999996</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.12</v>
       </c>
       <c r="B357">
         <v>-5.37697</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.14</v>
       </c>
       <c r="B358">
         <v>-5.18729</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.16</v>
       </c>
       <c r="B359">
         <v>-5.0841799999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.18</v>
       </c>
       <c r="B360">
         <v>-4.95688</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.2</v>
       </c>
       <c r="B361">
         <v>-4.8906799999999997</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.22</v>
       </c>
       <c r="B362">
         <v>-4.8219399999999997</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.24</v>
       </c>
       <c r="B363">
         <v>-4.7544700000000004</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.26</v>
       </c>
       <c r="B364">
         <v>-4.4846000000000004</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.28</v>
       </c>
       <c r="B365">
         <v>-4.2401799999999996</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.3</v>
       </c>
       <c r="B366">
         <v>-4.32674</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.32</v>
       </c>
       <c r="B367">
         <v>-4.6602699999999997</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.34</v>
       </c>
       <c r="B368">
         <v>-4.6360799999999998</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.36</v>
       </c>
       <c r="B369">
         <v>-4.5558800000000002</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.38</v>
       </c>
       <c r="B370">
         <v>-4.5151500000000002</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.4</v>
       </c>
       <c r="B371">
         <v>-0.41480499999999998</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.42</v>
       </c>
       <c r="B372">
         <v>-2.9417200000000001</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.44</v>
       </c>
       <c r="B373">
         <v>-4.0505000000000004</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.46</v>
       </c>
       <c r="B374">
         <v>-4.4642299999999997</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.48</v>
       </c>
       <c r="B375">
         <v>-4.5049599999999996</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.5</v>
       </c>
       <c r="B376">
         <v>-4.4171300000000002</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.52</v>
       </c>
       <c r="B377">
         <v>-4.1790799999999999</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.54</v>
       </c>
       <c r="B378">
         <v>-4.0772300000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.56</v>
       </c>
       <c r="B379">
         <v>-3.81372</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.58</v>
       </c>
       <c r="B380">
         <v>-3.7526199999999998</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.6</v>
       </c>
       <c r="B381">
         <v>-2.9977299999999998</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.62</v>
       </c>
       <c r="B382">
         <v>-3.6444100000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.64</v>
       </c>
       <c r="B383">
         <v>-3.2956099999999999</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.66</v>
       </c>
       <c r="B384">
         <v>-3.1059299999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.68</v>
       </c>
       <c r="B385">
         <v>-2.6922100000000002</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>3779268697</v>
+        <f t="shared" si="5"/>
+        <v>7.7</v>
       </c>
       <c r="B386">
         <v>-3.5591200000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>3779268697</v>
+        <f t="shared" ref="A387:A450" si="6">C387/$D$2</f>
+        <v>7.72</v>
       </c>
       <c r="B387">
         <v>-3.3592599999999999</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.74</v>
       </c>
       <c r="B388">
         <v>-3.0333700000000001</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.76</v>
       </c>
       <c r="B389">
         <v>-2.80932</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.78</v>
       </c>
       <c r="B390">
         <v>-2.7533099999999999</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.8</v>
       </c>
       <c r="B391">
         <v>-2.5763600000000002</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.82</v>
       </c>
       <c r="B392">
         <v>-2.30267</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.84</v>
       </c>
       <c r="B393">
         <v>-2.29121</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.86</v>
       </c>
       <c r="B394">
         <v>-2.8131400000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.88</v>
       </c>
       <c r="B395">
         <v>-2.4783400000000002</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.9</v>
       </c>
       <c r="B396">
         <v>-2.0035099999999999</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.92</v>
       </c>
       <c r="B397">
         <v>-1.38483</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.94</v>
       </c>
       <c r="B398">
         <v>-2.4185099999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>3779268697</v>
+        <f t="shared" si="6"/>
+        <v>7.96</v>
       </c>
       <c r="B399">
         <v>-2.5305399999999998</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>7.98</v>
       </c>
       <c r="B400">
         <v>-2.3866900000000002</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="B401">
         <v>-2.1028099999999998</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.02</v>
       </c>
       <c r="B402">
         <v>-2.2784800000000001</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.0399999999999991</v>
       </c>
       <c r="B403">
         <v>1.6716500000000001</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.06</v>
       </c>
       <c r="B404">
         <v>-0.775065</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.08</v>
       </c>
       <c r="B405">
         <v>-1.9615</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.1</v>
       </c>
       <c r="B406">
         <v>-2.5649099999999998</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.1199999999999992</v>
       </c>
       <c r="B407">
         <v>-2.57891</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.14</v>
       </c>
       <c r="B408">
         <v>-2.3472200000000001</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.16</v>
       </c>
       <c r="B409">
         <v>-2.3064900000000002</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.18</v>
       </c>
       <c r="B410">
         <v>-2.2644799999999998</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B411">
         <v>-2.0467900000000001</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.2200000000000006</v>
       </c>
       <c r="B412">
         <v>-2.2161</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.24</v>
       </c>
       <c r="B413">
         <v>-1.56687</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.26</v>
       </c>
       <c r="B414">
         <v>-2.1308099999999999</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.2799999999999994</v>
       </c>
       <c r="B415">
         <v>-1.98569</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B416">
         <v>-1.98569</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.32</v>
       </c>
       <c r="B417">
         <v>-2.2122899999999999</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.34</v>
       </c>
       <c r="B418">
         <v>-2.3153999999999999</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.36</v>
       </c>
       <c r="B419">
         <v>-2.4910700000000001</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.3800000000000008</v>
       </c>
       <c r="B420">
         <v>-2.4452400000000001</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.4</v>
       </c>
       <c r="B421">
         <v>-2.5127100000000002</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.42</v>
       </c>
       <c r="B422">
         <v>-2.4745200000000001</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.44</v>
       </c>
       <c r="B423">
         <v>-2.5903700000000001</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.4600000000000009</v>
       </c>
       <c r="B424">
         <v>-2.5763600000000002</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.48</v>
       </c>
       <c r="B425">
         <v>-2.5941900000000002</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.5</v>
       </c>
       <c r="B426">
         <v>-2.5916399999999999</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.52</v>
       </c>
       <c r="B427">
         <v>-2.4134199999999999</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.5399999999999991</v>
       </c>
       <c r="B428">
         <v>-2.1804600000000001</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.56</v>
       </c>
       <c r="B429">
         <v>-2.1957399999999998</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.58</v>
       </c>
       <c r="B430">
         <v>-2.6005500000000001</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.6</v>
       </c>
       <c r="B431">
         <v>-2.7036600000000002</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.6199999999999992</v>
       </c>
       <c r="B432">
         <v>-2.5750899999999999</v>
       </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.64</v>
       </c>
       <c r="B433">
         <v>-2.7889599999999999</v>
       </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.66</v>
       </c>
       <c r="B434">
         <v>-0.360066</v>
       </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.68</v>
       </c>
       <c r="B435">
         <v>1.55962</v>
       </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B436">
         <v>-1.9475</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.7200000000000006</v>
       </c>
       <c r="B437">
         <v>-2.5903700000000001</v>
       </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.74</v>
       </c>
       <c r="B438">
         <v>-2.67184</v>
       </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.76</v>
       </c>
       <c r="B439">
         <v>-2.67184</v>
       </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.7799999999999994</v>
       </c>
       <c r="B440">
         <v>-2.5992799999999998</v>
       </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B441">
         <v>-2.5343599999999999</v>
       </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.82</v>
       </c>
       <c r="B442">
         <v>-2.5038</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.84</v>
       </c>
       <c r="B443">
         <v>-2.3815900000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.86</v>
       </c>
       <c r="B444">
         <v>-2.1957399999999998</v>
       </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.8800000000000008</v>
       </c>
       <c r="B445">
         <v>-2.0748000000000002</v>
       </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.9</v>
       </c>
       <c r="B446">
         <v>-1.9411400000000001</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.92</v>
       </c>
       <c r="B447">
         <v>-1.89022</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.94</v>
       </c>
       <c r="B448">
         <v>-2.0098799999999999</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>3779268698</v>
+        <f t="shared" si="6"/>
+        <v>8.9600000000000009</v>
       </c>
       <c r="B449">
         <v>-2.1944599999999999</v>
       </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>3779268699</v>
+        <f t="shared" si="6"/>
+        <v>8.98</v>
       </c>
       <c r="B450">
         <v>-2.4070499999999999</v>
       </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>3779268699</v>
+        <f t="shared" ref="A451:A501" si="7">C451/$D$2</f>
+        <v>9</v>
       </c>
       <c r="B451">
         <v>-2.3357700000000001</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.02</v>
       </c>
       <c r="B452">
         <v>-2.3332199999999998</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.0399999999999991</v>
       </c>
       <c r="B453">
         <v>-2.3472200000000001</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.06</v>
       </c>
       <c r="B454">
         <v>-2.3612299999999999</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.08</v>
       </c>
       <c r="B455">
         <v>-2.4210600000000002</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.1</v>
       </c>
       <c r="B456">
         <v>-2.4936199999999999</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.1199999999999992</v>
       </c>
       <c r="B457">
         <v>-2.4388800000000002</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.14</v>
       </c>
       <c r="B458">
         <v>-2.4528799999999999</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.16</v>
       </c>
       <c r="B459">
         <v>-2.2262900000000001</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.18</v>
       </c>
       <c r="B460">
         <v>-2.0391599999999999</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B461">
         <v>-2.1320899999999998</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.2200000000000006</v>
       </c>
       <c r="B462">
         <v>-2.54454</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.24</v>
       </c>
       <c r="B463">
         <v>-2.5407199999999999</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.26</v>
       </c>
       <c r="B464">
         <v>-2.4528799999999999</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.2799999999999994</v>
       </c>
       <c r="B465">
         <v>-2.7418499999999999</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B466">
         <v>0.63796900000000001</v>
       </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.32</v>
       </c>
       <c r="B467">
         <v>0.44701800000000003</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.34</v>
       </c>
       <c r="B468">
         <v>-2.0557099999999999</v>
       </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.36</v>
       </c>
       <c r="B469">
         <v>-2.4668899999999998</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.3800000000000008</v>
       </c>
       <c r="B470">
         <v>-2.4159700000000002</v>
       </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.4</v>
       </c>
       <c r="B471">
         <v>-2.3204899999999999</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.42</v>
       </c>
       <c r="B472">
         <v>-2.1842800000000002</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.44</v>
       </c>
       <c r="B473">
         <v>-2.0149699999999999</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.4600000000000009</v>
       </c>
       <c r="B474">
         <v>-1.8673</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.48</v>
       </c>
       <c r="B475">
         <v>-1.74255</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.5</v>
       </c>
       <c r="B476">
         <v>-1.6139699999999999</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.52</v>
       </c>
       <c r="B477">
         <v>-1.4726699999999999</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.5399999999999991</v>
       </c>
       <c r="B478">
         <v>-1.3313699999999999</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.56</v>
       </c>
       <c r="B479">
         <v>-1.27281</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.58</v>
       </c>
       <c r="B480">
         <v>-1.44339</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.6</v>
       </c>
       <c r="B481">
         <v>-1.6699900000000001</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.6199999999999992</v>
       </c>
       <c r="B482">
         <v>-1.74637</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.64</v>
       </c>
       <c r="B483">
         <v>-1.7578199999999999</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.66</v>
       </c>
       <c r="B484">
         <v>-1.6839900000000001</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.68</v>
       </c>
       <c r="B485">
         <v>-1.63561</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B486">
         <v>-1.6381600000000001</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.7200000000000006</v>
       </c>
       <c r="B487">
         <v>-1.6063400000000001</v>
       </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.74</v>
       </c>
       <c r="B488">
         <v>-1.57196</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.76</v>
       </c>
       <c r="B489">
         <v>-1.5808800000000001</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.7799999999999994</v>
       </c>
       <c r="B490">
         <v>-1.5770599999999999</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B491">
         <v>-1.5261400000000001</v>
       </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.82</v>
       </c>
       <c r="B492">
         <v>-1.2829900000000001</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.84</v>
       </c>
       <c r="B493">
         <v>-1.0780400000000001</v>
       </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.86</v>
       </c>
       <c r="B494">
         <v>-1.1849700000000001</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.8800000000000008</v>
       </c>
       <c r="B495">
         <v>-1.5465</v>
       </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.9</v>
       </c>
       <c r="B496">
         <v>-1.58724</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.92</v>
       </c>
       <c r="B497">
         <v>-1.5057700000000001</v>
       </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.94</v>
       </c>
       <c r="B498">
         <v>-1.8316600000000001</v>
       </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>3779268699</v>
+        <f t="shared" si="7"/>
+        <v>9.9600000000000009</v>
       </c>
       <c r="B499">
         <v>2.0077199999999999</v>
       </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>3779268700</v>
+        <f t="shared" si="7"/>
+        <v>9.98</v>
       </c>
       <c r="B500">
         <v>0.59723300000000001</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>3779268700</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="B501">
         <v>-1.2168000000000001</v>
+      </c>
+      <c r="C501">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Labb/ECG Labb/ECG_Mans.xlsx
+++ b/Labb/ECG Labb/ECG_Mans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaaay\Documents\GitHub\MatLab\Labb\ECG Labb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856B689-C8C8-401A-9504-8EA6670D13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C2C72F-53CE-4F82-8622-4FBAA38D0053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Time </t>
+    <t>Amplitude</t>
   </si>
   <si>
-    <t>Amplitude</t>
+    <t>Tid</t>
   </si>
 </sst>
 </file>
@@ -362,17 +362,17 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F495" sqref="F495"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
